--- a/Data/About Herbs/h_lab.xlsx
+++ b/Data/About Herbs/h_lab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yingxuan/Documents/SUTD/UROP OncoRx/Data/About Herbs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1F0668-E291-E941-8573-287CFBCFD369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F14BA9-E859-5B4A-B328-2C3F4AF0540A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="30840" windowHeight="18180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="30860" windowHeight="18460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,331 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="4">
-  <si>
-    <t>Chemotherapy drugs (gemcitabine, taxol, doxorubicin, bicalutamide): Zyflamend may have additive effects (2) (4) (9).</t>
-  </si>
-  <si>
-    <t>Other prescriptions drugs: Because Zyflamend contains many herbal constituents, it can potentially interact with prescription drugs.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="106">
+  <si>
+    <t>5-HIAA urine test used to diagnose/monitor treatment for carcinoid tumors: 5-HTP increases urine 5-HIAA excretion and serum CgA levels, and could lead to misinterpretation of laboratory tests (37) (38).</t>
+  </si>
+  <si>
+    <t>Alfalfa may increase serum urate and urea levels (5).</t>
+  </si>
+  <si>
+    <t>May elevate liver enzymes (6).</t>
+  </si>
+  <si>
+    <t>High doses of intravenous arginine may results in the spillover into urine (22).</t>
+  </si>
+  <si>
+    <t>Bilberry may increase prothrombin time and partial thromboplastin time (PT/PTT) and inhibit platelet activity (33) (34) (35).</t>
+  </si>
+  <si>
+    <t>Immunoassay interference caused by high-dose biotin supplementation: Incorrect test results during routine follow-up of a 54-year-old female patient with progressive multiple sclerosis and Hashimoto’s thyroiditis (29).</t>
+  </si>
+  <si>
+    <t>Urinary pH has been shown to decrease after drinking cranberry juice (32) (33).</t>
+  </si>
+  <si>
+    <t>DIM supplementation has been shown to alter estrogen urinary metabolites in women (4).</t>
+  </si>
+  <si>
+    <t>Elevated PT / INR  (21)</t>
+  </si>
+  <si>
+    <t>Reductions in PT, PTT, and INR and blood glucose may occur. (8) (11)</t>
+  </si>
+  <si>
+    <t>Nuclear imaging (radiopharmaceutical biodistribution): Graviola significantly decreased uptake of radioactivity per gram of tissue in bladder, kidney, and blood in animal models (22).Blood glucose test: Graviola reduced blood glucose levels in a murine model (31).Blood pressure readings: Graviola reduced blood pressure readings in a murine model (32).</t>
+  </si>
+  <si>
+    <t>May cause arrhythmia</t>
+  </si>
+  <si>
+    <t>Reduced serum triglycerides (2)</t>
+  </si>
+  <si>
+    <t>May reduce low-density lipoprotein (30).</t>
+  </si>
+  <si>
+    <t>In rare cases, small increases in ALT have occurred (5) (15).</t>
+  </si>
+  <si>
+    <t>May elevate serum level of some vitamins.</t>
+  </si>
+  <si>
+    <t>Maca may interfere with testosterone immunoassays (30).</t>
+  </si>
+  <si>
+    <t>Body magnets interfere with radiology and/or MRI procedures.</t>
+  </si>
+  <si>
+    <t>Maitake may lower blood glucose levels (9).</t>
+  </si>
+  <si>
+    <t>The sugar in manuka may raise the blood glucose level in diabetics.</t>
+  </si>
+  <si>
+    <t>Due to the caffeine content in mate, the following lab tests may be altered:</t>
+  </si>
+  <si>
+    <t>Several studies have demonstrated that adherence to a Mediterranean diet positively affects blood lipid levels (4).</t>
+  </si>
+  <si>
+    <t>May lower plasma levels of factor VIII and fibrinogen  (25).</t>
+  </si>
+  <si>
+    <t>MGN-3 reduces alpha-fetoprotein (AFP) levels in hepatocellular carcinoma patients undergoing standard therapies (1).</t>
+  </si>
+  <si>
+    <t>May reduce blood glucose levels (7) (12).</t>
+  </si>
+  <si>
+    <t>In murine models, Nigella sativa oil decreased serum glucose, triglyceride, cholesterol levels, and leukocyte and platelet counts, but there was an increase in hematocrit and hemoglobin levels (16) (20).</t>
+  </si>
+  <si>
+    <t>Digoxin and digitoxin immunoassays: Oleandrin is structurally similar to digoxin and digitoxin, and is known to cross-react in various immunoassays (22) (23).</t>
+  </si>
+  <si>
+    <t>None known.</t>
+  </si>
+  <si>
+    <t>Increased serum homocysteine levels: In some patients with AIDS-associated myelopathy (32).</t>
+  </si>
+  <si>
+    <t>Schisandra can reduce levels of alanine aminotransferase (ALT) and aspartate aminotransferase (AST) but did not change total or direct bilirubin levels (21).</t>
+  </si>
+  <si>
+    <t>Scorpion venom could potentially alter prothrombin time, partial prothrombin time, and international normalized ratio values due to presence of phospholipase A2 (11).</t>
+  </si>
+  <si>
+    <t>Anthraquinones can cause discoloration of urine, interfering with urinalysis (3).</t>
+  </si>
+  <si>
+    <t>Chronic consumption of shiitake may increase eosinophil count (12).</t>
+  </si>
+  <si>
+    <t>Siberian ginseng may cause falsely elevated digoxin serum assays (12).</t>
+  </si>
+  <si>
+    <t>Curcumin can interfere with thioflavin T assays due to its strong absorptive and fluorescent properties (58).</t>
+  </si>
+  <si>
+    <t>In 2 case reports, usnic acid dramatically increased ALT, AST, ALK P, and total bilirubin levels, and also prolonged prothrombin time (14).</t>
+  </si>
+  <si>
+    <t>Ascorbic acid supplementation may cause a false negative guaiac (occult blood) test (66).</t>
+  </si>
+  <si>
+    <t>May increase PT, PTT, INR.</t>
+  </si>
+  <si>
+    <t>In animal studies, oral supplementation of zeolites increased serum potassium levels by 20% (25).</t>
+  </si>
+  <si>
+    <t>Inaccurate troponin test results (22): A patient death was related to a missed diagnosis of heart disease, stemming from falsely low troponin test results that were due to the patient’s high intake levels of biotin. Other papers also report the susceptibility of cardiac troponin assays to biotin interference at levels achievable with over-the-counter supplements (28). </t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
+    <t>Blood pressure may be elevated (7)</t>
+  </si>
+  <si>
+    <t>Elevated TSH, T3, and T4 (9)</t>
+  </si>
+  <si>
+    <t>Multiple blood test results  (20) (22): Biotin supplementation can affect various test results.</t>
+  </si>
+  <si>
+    <t>Free Thyroxine and Thyroid Stimulating Hormone (FT4/TSH) assay: Reported false-high values were attributed to high serum biotin levels in a neonate (12).</t>
+  </si>
+  <si>
+    <t>Blood glucose levels: May be affected by glucosamine (34).</t>
+  </si>
+  <si>
+    <t>Cytochrome (CYP) P450 substrates: In vitro, honokiol inhibited CYP1A2, CYP2C8, CYP2C9, CYP2C19, and may alter activities of the drugs metabolized by these enzymes (41). Clinical relevance is not known.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>Qualitative urine hCG tests: Biotin supplementation may cause an invalid test result with some types of pregnancy tests due to absence of a control line (25).</t>
+  </si>
+  <si>
+    <t>Other immunoassay interferences: Biotin taken in moderate to high doses can result in either false-high or -low values (19).</t>
+  </si>
+  <si>
+    <t>Increased International Normalized Ratio (INR): Glucosamine was associated with increased INR that return to normal levels when discontinued (22).</t>
+  </si>
+  <si>
+    <t>UDP-glucuronosyltransferase (UGT): Honokiol inhibited UGT1A9 in vitro, suggesting it may interfere with activities of drugs metabolized by this enzyme (41). Clinical relevance is not known.</t>
+  </si>
+  <si>
+    <t>Elevated aminotransferase values: In patients with liver disease (20).</t>
+  </si>
+  <si>
+    <t>P-Glycoprotein (P-gp) substrates: Honokiol downregulates P-gp expression (42) and may interfere with the metabolism of certain drugs. Clinical relevance is not known.</t>
+  </si>
+  <si>
+    <t>Antiplatelet agents: In animal studies, magnolol also demonstrated antiplatelet activities (46) and may therefore increase the risk of bleeding when used with these drugs. Clinical relevance is not known.</t>
+  </si>
+  <si>
+    <t>Antidiabetic agents: Laboratory studies suggest that Magnolia bark extract and magnolol have hypoglycemic effects (5) (6) and may increase the effects of these medications. Clinical relevance is not known.</t>
+  </si>
+  <si>
+    <t>Benzodiazepines: Magnolia bark extract and honokiol may increase the effects of these medications (47). Clinical relevance is not known.</t>
+  </si>
+  <si>
+    <t>May lower blood glucose level (8).</t>
+  </si>
+  <si>
+    <t>May cause an elevation of liver enzymes (14).</t>
+  </si>
+  <si>
+    <t>May cause false elevation in digoxin immunoassay (28).</t>
+  </si>
+  <si>
+    <t>May increase thyroxine levels (39).</t>
+  </si>
+  <si>
+    <t>Decreased blood pressure (70) (71)</t>
+  </si>
+  <si>
+    <t>High amounts of n-3 PUFAs could lead to altered bleeding and clotting times (5) .</t>
+  </si>
+  <si>
+    <t>May reduce blood sugar levels (11) (12).</t>
+  </si>
+  <si>
+    <t>Cinnamon may lower blood glucose and cholesterol levels but the evidence is mixed (8) (10).</t>
+  </si>
+  <si>
+    <t>Theoretically, cinnamon may increase prothrombin time (30).</t>
+  </si>
+  <si>
+    <t>Increased INR (28).</t>
+  </si>
+  <si>
+    <t>Urine odor: False diagnosis of maple syrup urine disease in the infant due to presence of sotolone in the urine (21) (22).</t>
+  </si>
+  <si>
+    <t>May decrease serum total cholesterol, triglycerides, and NEFA and lower insulin levels (4).</t>
+  </si>
+  <si>
+    <t>May increase levels of HDL-C (8).</t>
+  </si>
+  <si>
+    <t>Insulin</t>
+  </si>
+  <si>
+    <t>Increased PT and INR</t>
+  </si>
+  <si>
+    <t>Decreased cholesterol</t>
+  </si>
+  <si>
+    <t>Change in blood pressure</t>
+  </si>
+  <si>
+    <t>In vitro and animal studies suggest berberine may increase bilirubin levels due to displacement of bilirubin from albumin (21).</t>
+  </si>
+  <si>
+    <t>Goldenseal may cause a darkening in urine color in illicit drug testing (22).</t>
+  </si>
+  <si>
+    <t>Caffeine in green tea may increase PT / PTT</t>
+  </si>
+  <si>
+    <t>Isomerized hops extracts (IHEs) may increase plasma HDL levels (14).</t>
+  </si>
+  <si>
+    <t>Hops extract in combination with rosemary extract and oleanolic acid may reduce C-reactive protein in patients presenting with elevated levels (11).</t>
+  </si>
+  <si>
+    <t>May lower blood glucose levels (8).</t>
+  </si>
+  <si>
+    <t>Blood pressure</t>
+  </si>
+  <si>
+    <t>Catecholamine levels</t>
+  </si>
+  <si>
+    <t>Bleeding time as measured by PT, aPTT, or INR</t>
+  </si>
+  <si>
+    <t>May prolong PT, PTT, INR, and C/EPI CT (8) (19)</t>
+  </si>
+  <si>
+    <t>May decrease fibrinogen (12)</t>
+  </si>
+  <si>
+    <t>In a study of heart transplant recipients, omega-3 supplementation was found to decrease vitamin E and beta-carotene levels while increasing TNF-alpha (28).</t>
+  </si>
+  <si>
+    <t>Conclusions of a meta-analysis indicate that high levels of omega-3s help reduce triglycerides, and increase LDL cholesterol (9).</t>
+  </si>
+  <si>
+    <t>Doses higher than 3 grams per day may increase bleeding time (25).</t>
+  </si>
+  <si>
+    <t>According to a case report, a water extract of papaya leaf increased platelet count (3).</t>
+  </si>
+  <si>
+    <t>Decreased serum potassium (10)</t>
+  </si>
+  <si>
+    <t>Reduced PSA levels (2)</t>
+  </si>
+  <si>
+    <t>Reishi extracts may prolong INR, PT, and APTT (12).</t>
+  </si>
+  <si>
+    <t>Reishi mushroom spore powder may elevate the level of glycoprotein CA72-4. High levels of CA72-4 have been reported in several malignancies including gastrointestinal, ovarian, endometrium, and lung cancers  (35).</t>
+  </si>
+  <si>
+    <t>Royal jelly lowered both total and LDL cholesterol levels in humans (5).</t>
+  </si>
+  <si>
+    <t>Royal jelly increased prothrombin time and fibrinolytic activity in rats (8).</t>
+  </si>
+  <si>
+    <t>May prolong bleeding time (11)</t>
+  </si>
+  <si>
+    <t>Sho-saiko-to may alter aspartate transaminase and alanine transaminase (AST/ALT) values (16) (28).</t>
+  </si>
+  <si>
+    <t>Significant elevations in serum aminotransferases and creatinine (47), and mildly elevated alkaline phosphatase as well as aspartate and alanine aminotransferases (27) have been reported.</t>
+  </si>
+  <si>
+    <t>May decrease red blood cell aggregation (13).</t>
+  </si>
+  <si>
+    <t>May reduce plasma and whole blood viscosity (13).</t>
   </si>
   <si>
     <t>h_lab1</t>
   </si>
   <si>
     <t>h_lab2</t>
+  </si>
+  <si>
+    <t>h_lab3</t>
+  </si>
+  <si>
+    <t>h_lab4</t>
+  </si>
+  <si>
+    <t>h_lab5</t>
+  </si>
+  <si>
+    <t>h_lab6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +360,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -90,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -101,6 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,1780 +758,1734 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C276"/>
+  <dimension ref="A1:H276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26" style="3" customWidth="1"/>
-    <col min="3" max="3" width="28.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="31.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16">
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="80">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="32">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="32">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="32">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="32">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="48">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="192">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" ht="16">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="32">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="48">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="32">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" ht="32">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="16">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="64">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5">
       <c r="A99" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5">
       <c r="A100" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5">
       <c r="A101" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5">
       <c r="A102" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="48">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5">
       <c r="A106" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5">
       <c r="A107" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5">
       <c r="A108" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5">
       <c r="A109" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="32">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5">
       <c r="A112" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="80">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6">
       <c r="A115" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="48">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6">
       <c r="A118" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="144">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="16">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="16">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="16">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="16">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6">
       <c r="A126" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="80">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" ht="32">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" ht="16">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="16">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="32">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="32">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="112">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="16">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" ht="32">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" ht="32">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="48">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="32">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" ht="48">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5">
       <c r="A171" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5">
       <c r="A172" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" ht="16">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5">
       <c r="A175" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" ht="16">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6">
       <c r="A178" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6">
       <c r="A179" s="1">
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="80">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="1">
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6">
       <c r="A182" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="64">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="1">
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="64">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="1">
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="16">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="32">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="1">
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" ht="16">
       <c r="A190" s="1">
         <v>188</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+      <c r="B190" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="16">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1">
       <c r="A193" s="1">
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1">
       <c r="A194" s="1">
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1">
       <c r="A195" s="1">
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1">
       <c r="A196" s="1">
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1">
       <c r="A197" s="1">
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1">
       <c r="A198" s="1">
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1">
       <c r="A199" s="1">
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1">
       <c r="A200" s="1">
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1">
       <c r="A201" s="1">
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1">
       <c r="A202" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1">
       <c r="A203" s="1">
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1">
       <c r="A204" s="1">
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1">
       <c r="A205" s="1">
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1">
       <c r="A206" s="1">
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1">
       <c r="A207" s="1">
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1">
       <c r="A208" s="1">
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3">
       <c r="A209" s="1">
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3">
       <c r="A210" s="1">
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" ht="128">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
       <c r="A212" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3">
       <c r="A213" s="1">
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:3">
       <c r="A214" s="1">
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:3">
       <c r="A215" s="1">
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" ht="48">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
       <c r="A217" s="1">
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:3" ht="48">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
       <c r="A219" s="1">
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3">
       <c r="A220" s="1">
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" ht="16">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C221" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="64">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="64">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C223" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
       <c r="A224" s="1">
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6">
       <c r="A225" s="1">
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6">
       <c r="A226" s="1">
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6">
       <c r="A227" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6">
       <c r="A228" s="1">
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6">
       <c r="A229" s="1">
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" ht="32">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" s="1">
         <v>229</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" ht="32">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="48">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="32">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" s="1">
         <v>233</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6">
       <c r="A236" s="1">
         <v>234</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6">
       <c r="A237" s="1">
         <v>235</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6">
       <c r="A238" s="1">
         <v>236</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6">
       <c r="A239" s="1">
         <v>237</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6">
       <c r="A240" s="1">
         <v>238</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6">
       <c r="A241" s="1">
         <v>239</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6">
       <c r="A242" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6">
       <c r="A243" s="1">
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6">
       <c r="A244" s="1">
         <v>242</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6">
       <c r="A245" s="1">
         <v>243</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6">
       <c r="A246" s="1">
         <v>244</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6">
       <c r="A247" s="1">
         <v>245</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6">
       <c r="A248" s="1">
         <v>246</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6">
       <c r="A249" s="1">
         <v>247</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6">
       <c r="A250" s="1">
         <v>248</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6">
       <c r="A251" s="1">
         <v>249</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" ht="80">
       <c r="A252" s="1">
         <v>250</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C252" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" s="1">
         <v>251</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" ht="48">
       <c r="A254" s="1">
         <v>252</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C254" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" s="1">
         <v>253</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" ht="64">
       <c r="A256" s="1">
         <v>254</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C256" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
       <c r="A257" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3">
       <c r="A258" s="1">
         <v>256</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" ht="32">
       <c r="A259" s="1">
         <v>257</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
       <c r="A260" s="1">
         <v>258</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3">
       <c r="A261" s="1">
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3">
       <c r="A262" s="1">
         <v>260</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" ht="32">
       <c r="A263" s="1">
         <v>261</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" s="1">
         <v>262</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3">
       <c r="A265" s="1">
         <v>263</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:3">
       <c r="A266" s="1">
         <v>264</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3">
       <c r="A267" s="1">
         <v>265</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3">
       <c r="A268" s="1">
         <v>266</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3">
       <c r="A269" s="1">
         <v>267</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3">
       <c r="A270" s="1">
         <v>268</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:3">
       <c r="A271" s="1">
         <v>269</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" ht="16">
       <c r="A272" s="1">
         <v>270</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="80" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="48">
       <c r="A273" s="1">
         <v>271</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>